--- a/Output/Relatorio-Erros-IT754893.xlsx
+++ b/Output/Relatorio-Erros-IT754893.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60438022-BFC4-4DDA-89E6-774F6631B780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D194F7-03E7-4D82-8225-3149063B6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B1ABB6C-9001-413F-BAD9-F1464E6D4520}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-IT754893.xlsx
+++ b/Output/Relatorio-Erros-IT754893.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB1B00-1E20-4A37-9D18-A1A6776E9BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C66C43-7219-416C-B080-E767D781DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82100F88-8284-4954-9C05-DA5E2A37F817}"/>
   </bookViews>
